--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D04A9-6C2F-461E-9B56-ADB34A9AA368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC75CC8-C3E7-40D1-8C0C-6F2D29A02E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,7 @@
     <numFmt numFmtId="168" formatCode="##"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -281,18 +281,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Browallia New"/>
       <family val="2"/>
     </font>
@@ -376,8 +364,23 @@
       <charset val="222"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
       <sz val="15"/>
-      <name val="Westend"/>
+      <color theme="1"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Browallia New"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -882,7 +885,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,28 +944,13 @@
     <xf numFmtId="43" fontId="12" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,36 +1091,33 @@
     <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,153 +1126,138 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="21" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1311,19 +1281,25 @@
     <xf numFmtId="14" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,22 +1332,22 @@
     <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,11 +1356,26 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1848,11 +1839,11 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
@@ -1872,119 +1863,119 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-    </row>
-    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+    </row>
+    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="5"/>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-    </row>
-    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F2" s="126"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+    </row>
+    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D3" s="5"/>
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="140" t="s">
+      <c r="F3" s="126"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E4" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-    </row>
-    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1">
+      <c r="F4" s="126"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+    </row>
+    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="J5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B6" s="153" t="s">
+    <row r="6" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="156"/>
-    </row>
-    <row r="7" spans="2:15" ht="21" customHeight="1">
-      <c r="B7" s="80" t="s">
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="147"/>
+    </row>
+    <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="80" t="s">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="74" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32" t="s">
+      <c r="J7" s="132"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="147"/>
-    </row>
-    <row r="8" spans="2:15" ht="21" customHeight="1">
-      <c r="B8" s="84" t="s">
+      <c r="M7" s="136"/>
+    </row>
+    <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="84"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="146" t="s">
+      <c r="J8" s="51"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="145"/>
-    </row>
-    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1">
+      <c r="M8" s="134"/>
+    </row>
+    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1997,28 +1988,28 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="157" t="s">
+      <c r="F9" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="158"/>
-      <c r="H9" s="141" t="s">
+      <c r="G9" s="149"/>
+      <c r="H9" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="142" t="s">
+      <c r="I9" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="142" t="s">
+      <c r="J9" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="157" t="s">
+      <c r="K9" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="157" t="s">
+      <c r="L9" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="158"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1">
+      <c r="M9" s="149"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2028,11 +2019,11 @@
       <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="17" t="s">
         <v>17</v>
       </c>
@@ -2042,453 +2033,451 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="160"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="109">
-        <v>1</v>
-      </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
-      <c r="O11" s="51"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="110"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="96"/>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1">
-      <c r="B13" s="107"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="96"/>
-    </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1">
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="96"/>
-    </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="104"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="96"/>
-    </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1">
-      <c r="B16" s="105"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="96"/>
-    </row>
-    <row r="17" spans="2:16" ht="18" customHeight="1">
-      <c r="B17" s="104"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="2:16" ht="18" customHeight="1">
-      <c r="B18" s="105"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1">
-      <c r="B19" s="104"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="2:16" ht="18" customHeight="1">
-      <c r="B20" s="105"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B21" s="104"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="102"/>
-    </row>
-    <row r="22" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="102"/>
-    </row>
-    <row r="23" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="102"/>
-    </row>
-    <row r="24" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B24" s="105"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="102"/>
-    </row>
-    <row r="25" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="102"/>
-    </row>
-    <row r="26" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="102"/>
-    </row>
-    <row r="27" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="102"/>
-    </row>
-    <row r="28" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="102"/>
-    </row>
-    <row r="29" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="104"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="102"/>
-    </row>
-    <row r="30" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="102"/>
-    </row>
-    <row r="31" spans="2:16" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="102"/>
-    </row>
-    <row r="32" spans="2:16" ht="18" customHeight="1">
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="30"/>
-      <c r="P32" s="31"/>
-    </row>
-    <row r="33" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B33" s="32" t="s">
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="151"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="100"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="89"/>
+      <c r="O11" s="46"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="101"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="89"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="98"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="89"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="89"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="89"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="96"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="89"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="95"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="96"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="95"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="96"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="95"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="93"/>
+    </row>
+    <row r="22" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="93"/>
+    </row>
+    <row r="23" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="93"/>
+    </row>
+    <row r="24" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="96"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="93"/>
+    </row>
+    <row r="25" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="93"/>
+    </row>
+    <row r="26" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="93"/>
+    </row>
+    <row r="27" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="93"/>
+    </row>
+    <row r="28" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="93"/>
+    </row>
+    <row r="29" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="93"/>
+    </row>
+    <row r="30" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="93"/>
+    </row>
+    <row r="31" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="93"/>
+    </row>
+    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="25"/>
+      <c r="P32" s="26"/>
+    </row>
+    <row r="33" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B33" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36" t="s">
+      <c r="C33" s="28"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="38" t="s">
+      <c r="J33" s="32"/>
+      <c r="K33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="39"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="41"/>
-      <c r="P33" s="41"/>
-    </row>
-    <row r="34" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="47" t="s">
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="36"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="48" t="s">
+      <c r="J34" s="32"/>
+      <c r="K34" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="49"/>
-    </row>
-    <row r="35" spans="2:16" ht="18" customHeight="1">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="47" t="s">
+      <c r="L34" s="39"/>
+      <c r="M34" s="44"/>
+    </row>
+    <row r="35" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="42" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="51" t="s">
+      <c r="J35" s="32"/>
+      <c r="K35" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
-    </row>
-    <row r="36" spans="2:16" ht="18" customHeight="1">
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="55" t="s">
+      <c r="L35" s="40"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="48"/>
+    </row>
+    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="48" t="s">
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59"/>
-    </row>
-    <row r="37" spans="2:16" s="68" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B37" s="60" t="s">
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+    </row>
+    <row r="37" spans="2:16" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="61" t="s">
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="65"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="67" t="s">
+      <c r="I37" s="60"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="66"/>
-    </row>
-    <row r="38" spans="2:16" ht="19.5" customHeight="1">
-      <c r="B38" s="69" t="s">
+      <c r="M37" s="61"/>
+    </row>
+    <row r="38" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="70" t="s">
+      <c r="H38" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="71"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="162"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
-    </row>
-    <row r="39" spans="2:16">
+      <c r="I38" s="66"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="153"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="68"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B39" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="152"/>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="L39" s="142"/>
+      <c r="M39" s="143"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.5">
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.5">
       <c r="K41" s="1"/>
     </row>
   </sheetData>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC75CC8-C3E7-40D1-8C0C-6F2D29A02E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FBE0AC-5BF4-47FA-9808-F9F45861CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -191,6 +191,7 @@
     <numFmt numFmtId="167" formatCode="#,###.#"/>
     <numFmt numFmtId="168" formatCode="##"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="[$-1070000]d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1278,9 +1279,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1296,6 +1294,24 @@
     <xf numFmtId="43" fontId="30" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1361,21 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1839,8 +1840,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
@@ -1922,20 +1923,20 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="147"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="152"/>
     </row>
     <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="74" t="s">
@@ -1955,7 +1956,7 @@
       <c r="L7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="136"/>
+      <c r="M7" s="146"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="78" t="s">
@@ -1988,10 +1989,10 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="148" t="s">
+      <c r="F9" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="149"/>
+      <c r="G9" s="154"/>
       <c r="H9" s="130" t="s">
         <v>29</v>
       </c>
@@ -2001,13 +2002,13 @@
       <c r="J9" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="148" t="s">
+      <c r="K9" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="148" t="s">
+      <c r="L9" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="149"/>
+      <c r="M9" s="154"/>
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15" t="s">
@@ -2033,9 +2034,9 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="151"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="156"/>
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="100"/>
@@ -2045,10 +2046,10 @@
       <c r="F11" s="110"/>
       <c r="G11" s="85"/>
       <c r="H11" s="71"/>
-      <c r="I11" s="164"/>
+      <c r="I11" s="141"/>
       <c r="J11" s="73"/>
       <c r="K11" s="73"/>
-      <c r="L11" s="139"/>
+      <c r="L11" s="138"/>
       <c r="M11" s="89"/>
       <c r="O11" s="46"/>
     </row>
@@ -2058,12 +2059,12 @@
       <c r="D12" s="102"/>
       <c r="E12" s="118"/>
       <c r="F12" s="111"/>
-      <c r="G12" s="138"/>
+      <c r="G12" s="137"/>
       <c r="H12" s="71"/>
-      <c r="I12" s="164"/>
+      <c r="I12" s="141"/>
       <c r="J12" s="105"/>
       <c r="K12" s="105"/>
-      <c r="L12" s="139"/>
+      <c r="L12" s="138"/>
       <c r="M12" s="89"/>
     </row>
     <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -2074,10 +2075,10 @@
       <c r="F13" s="122"/>
       <c r="G13" s="114"/>
       <c r="H13" s="71"/>
-      <c r="I13" s="164"/>
+      <c r="I13" s="141"/>
       <c r="J13" s="105"/>
       <c r="K13" s="105"/>
-      <c r="L13" s="139"/>
+      <c r="L13" s="138"/>
       <c r="M13" s="89"/>
     </row>
     <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2085,13 +2086,13 @@
       <c r="C14" s="97"/>
       <c r="D14" s="121"/>
       <c r="E14" s="118"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="163"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
       <c r="H14" s="71"/>
-      <c r="I14" s="164"/>
+      <c r="I14" s="141"/>
       <c r="J14" s="105"/>
       <c r="K14" s="105"/>
-      <c r="L14" s="139"/>
+      <c r="L14" s="138"/>
       <c r="M14" s="89"/>
     </row>
     <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2102,10 +2103,10 @@
       <c r="F15" s="111"/>
       <c r="G15" s="86"/>
       <c r="H15" s="71"/>
-      <c r="I15" s="164"/>
+      <c r="I15" s="141"/>
       <c r="J15" s="105"/>
       <c r="K15" s="105"/>
-      <c r="L15" s="139"/>
+      <c r="L15" s="138"/>
       <c r="M15" s="89"/>
     </row>
     <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -2116,10 +2117,10 @@
       <c r="F16" s="111"/>
       <c r="G16" s="88"/>
       <c r="H16" s="71"/>
-      <c r="I16" s="164"/>
+      <c r="I16" s="141"/>
       <c r="J16" s="105"/>
       <c r="K16" s="106"/>
-      <c r="L16" s="139"/>
+      <c r="L16" s="138"/>
       <c r="M16" s="89"/>
     </row>
     <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2130,10 +2131,10 @@
       <c r="F17" s="112"/>
       <c r="G17" s="103"/>
       <c r="H17" s="71"/>
-      <c r="I17" s="164"/>
+      <c r="I17" s="141"/>
       <c r="J17" s="105"/>
       <c r="K17" s="106"/>
-      <c r="L17" s="139"/>
+      <c r="L17" s="138"/>
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2143,11 +2144,11 @@
       <c r="E18" s="97"/>
       <c r="F18" s="113"/>
       <c r="G18" s="104"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="164"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="141"/>
       <c r="J18" s="105"/>
       <c r="K18" s="106"/>
-      <c r="L18" s="139"/>
+      <c r="L18" s="138"/>
       <c r="M18" s="20"/>
     </row>
     <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2157,11 +2158,11 @@
       <c r="E19" s="97"/>
       <c r="F19" s="113"/>
       <c r="G19" s="104"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="164"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="141"/>
       <c r="J19" s="105"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="139"/>
+      <c r="L19" s="138"/>
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2169,13 +2170,13 @@
       <c r="C20" s="116"/>
       <c r="D20" s="121"/>
       <c r="E20" s="97"/>
-      <c r="F20" s="137"/>
+      <c r="F20" s="136"/>
       <c r="G20" s="103"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="164"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="141"/>
       <c r="J20" s="105"/>
       <c r="K20" s="106"/>
-      <c r="L20" s="139"/>
+      <c r="L20" s="138"/>
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2185,11 +2186,11 @@
       <c r="E21" s="119"/>
       <c r="F21" s="113"/>
       <c r="G21" s="115"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="164"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="141"/>
       <c r="J21" s="105"/>
       <c r="K21" s="106"/>
-      <c r="L21" s="139"/>
+      <c r="L21" s="138"/>
       <c r="M21" s="93"/>
     </row>
     <row r="22" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2199,11 +2200,11 @@
       <c r="E22" s="97"/>
       <c r="F22" s="113"/>
       <c r="G22" s="115"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="164"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="141"/>
       <c r="J22" s="105"/>
       <c r="K22" s="106"/>
-      <c r="L22" s="139"/>
+      <c r="L22" s="138"/>
       <c r="M22" s="93"/>
     </row>
     <row r="23" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -2211,13 +2212,13 @@
       <c r="C23" s="96"/>
       <c r="D23" s="91"/>
       <c r="E23" s="97"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="164"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="141"/>
       <c r="J23" s="105"/>
       <c r="K23" s="106"/>
-      <c r="L23" s="139"/>
+      <c r="L23" s="138"/>
       <c r="M23" s="93"/>
     </row>
     <row r="24" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -2225,13 +2226,13 @@
       <c r="C24" s="98"/>
       <c r="D24" s="91"/>
       <c r="E24" s="97"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="164"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="141"/>
       <c r="J24" s="105"/>
       <c r="K24" s="106"/>
-      <c r="L24" s="139"/>
+      <c r="L24" s="138"/>
       <c r="M24" s="93"/>
     </row>
     <row r="25" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2241,11 +2242,11 @@
       <c r="E25" s="97"/>
       <c r="F25" s="82"/>
       <c r="G25" s="99"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="164"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="141"/>
       <c r="J25" s="105"/>
       <c r="K25" s="106"/>
-      <c r="L25" s="139"/>
+      <c r="L25" s="138"/>
       <c r="M25" s="93"/>
     </row>
     <row r="26" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2255,11 +2256,11 @@
       <c r="E26" s="97"/>
       <c r="F26" s="87"/>
       <c r="G26" s="99"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="164"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="141"/>
       <c r="J26" s="105"/>
       <c r="K26" s="106"/>
-      <c r="L26" s="139"/>
+      <c r="L26" s="138"/>
       <c r="M26" s="93"/>
     </row>
     <row r="27" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2269,11 +2270,11 @@
       <c r="E27" s="97"/>
       <c r="F27" s="82"/>
       <c r="G27" s="99"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="164"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="141"/>
       <c r="J27" s="105"/>
       <c r="K27" s="106"/>
-      <c r="L27" s="139"/>
+      <c r="L27" s="138"/>
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2283,11 +2284,11 @@
       <c r="E28" s="97"/>
       <c r="F28" s="87"/>
       <c r="G28" s="99"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="164"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="141"/>
       <c r="J28" s="105"/>
       <c r="K28" s="106"/>
-      <c r="L28" s="139"/>
+      <c r="L28" s="138"/>
       <c r="M28" s="93"/>
     </row>
     <row r="29" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2297,11 +2298,11 @@
       <c r="E29" s="97"/>
       <c r="F29" s="87"/>
       <c r="G29" s="99"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="164"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="141"/>
       <c r="J29" s="105"/>
       <c r="K29" s="106"/>
-      <c r="L29" s="139"/>
+      <c r="L29" s="138"/>
       <c r="M29" s="93"/>
     </row>
     <row r="30" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -2309,13 +2310,13 @@
       <c r="C30" s="96"/>
       <c r="D30" s="91"/>
       <c r="E30" s="97"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="164"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="141"/>
       <c r="J30" s="105"/>
       <c r="K30" s="106"/>
-      <c r="L30" s="139"/>
+      <c r="L30" s="138"/>
       <c r="M30" s="93"/>
     </row>
     <row r="31" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -2323,13 +2324,13 @@
       <c r="C31" s="96"/>
       <c r="D31" s="91"/>
       <c r="E31" s="97"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="164"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="141"/>
       <c r="J31" s="92"/>
       <c r="K31" s="92"/>
-      <c r="L31" s="140"/>
+      <c r="L31" s="139"/>
       <c r="M31" s="93"/>
     </row>
     <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.5">
@@ -2337,13 +2338,13 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="23"/>
       <c r="K32" s="24"/>
-      <c r="L32" s="141"/>
+      <c r="L32" s="140"/>
       <c r="M32" s="25"/>
       <c r="P32" s="26"/>
     </row>
@@ -2459,8 +2460,8 @@
         <v>24</v>
       </c>
       <c r="I38" s="66"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="153"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="158"/>
       <c r="L38" s="67"/>
       <c r="M38" s="68"/>
     </row>
@@ -2471,8 +2472,8 @@
       <c r="C39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="142"/>
-      <c r="M39" s="143"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.5">
       <c r="K40" s="1"/>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FBE0AC-5BF4-47FA-9808-F9F45861CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC362736-E782-44E8-9443-D50FF3736115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -193,7 +193,7 @@
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="[$-1070000]d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -381,6 +381,12 @@
     <font>
       <sz val="14"/>
       <name val="Browallia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Cordia New"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -422,7 +428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -649,10 +655,166 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -666,7 +828,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -677,7 +852,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -689,47 +864,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -741,125 +879,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -886,7 +909,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,24 +968,18 @@
     <xf numFmtId="43" fontId="12" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,9 +997,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1041,9 +1055,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1094,13 +1105,13 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,256 +1138,277 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="30" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1840,143 +1872,143 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="11.8984375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.69921875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.09765625" style="1"/>
+    <col min="16" max="16" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-    </row>
-    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+    </row>
+    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-    </row>
-    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+    </row>
+    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D3" s="5"/>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="129" t="s">
+      <c r="F3" s="119"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="E4" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="126"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-    </row>
-    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F4" s="119"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+    </row>
+    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1">
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="J5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="149" t="s">
+    <row r="6" spans="2:15" ht="25.5" customHeight="1">
+      <c r="B6" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="152"/>
-    </row>
-    <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="74" t="s">
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="154"/>
+    </row>
+    <row r="7" spans="2:15" ht="21" customHeight="1">
+      <c r="B7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="74" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="70" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27" t="s">
+      <c r="J7" s="125"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="146"/>
-    </row>
-    <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="78" t="s">
+      <c r="M7" s="139"/>
+    </row>
+    <row r="8" spans="2:15" ht="21" customHeight="1">
+      <c r="B8" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="78"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="135" t="s">
+      <c r="J8" s="48"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="134"/>
-    </row>
-    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="M8" s="127"/>
+    </row>
+    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1989,28 +2021,28 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="153" t="s">
+      <c r="F9" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="154"/>
-      <c r="H9" s="130" t="s">
+      <c r="G9" s="156"/>
+      <c r="H9" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="131" t="s">
+      <c r="J9" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="153" t="s">
+      <c r="K9" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="153" t="s">
+      <c r="L9" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="154"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="M9" s="156"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1">
       <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2020,11 +2052,11 @@
       <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="17" t="s">
         <v>17</v>
       </c>
@@ -2034,451 +2066,526 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="156"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="100"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="89"/>
-      <c r="O11" s="46"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="101"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="89"/>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="98"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="89"/>
-    </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="96"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="89"/>
-    </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="89"/>
-    </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="96"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="89"/>
-    </row>
-    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="95"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="138"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="158"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="95"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="69">
+        <f>K11*C11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="141"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="85"/>
+      <c r="O11" s="43"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="96"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="69">
+        <f t="shared" ref="J12:J32" si="0">K12*C12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="142"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="85"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1">
+      <c r="B13" s="93"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="142"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="85"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1">
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="142"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="85"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1">
+      <c r="B15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="142"/>
+      <c r="L15" s="131"/>
+      <c r="M15" s="85"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1">
+      <c r="B16" s="91"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="143"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="85"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1">
+      <c r="B17" s="90"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="143"/>
+      <c r="L17" s="131"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="96"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="138"/>
+    <row r="18" spans="2:16" ht="18" customHeight="1">
+      <c r="B18" s="91"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="143"/>
+      <c r="L18" s="131"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="95"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="138"/>
+    <row r="19" spans="2:16" ht="18" customHeight="1">
+      <c r="B19" s="90"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="143"/>
+      <c r="L19" s="131"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="96"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="138"/>
+    <row r="20" spans="2:16" ht="18" customHeight="1">
+      <c r="B20" s="91"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="143"/>
+      <c r="L20" s="131"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="95"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="93"/>
-    </row>
-    <row r="22" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="93"/>
-    </row>
-    <row r="23" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="93"/>
-    </row>
-    <row r="24" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="96"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="93"/>
-    </row>
-    <row r="25" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="93"/>
-    </row>
-    <row r="26" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="95"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="93"/>
-    </row>
-    <row r="27" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="95"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="138"/>
-      <c r="M27" s="93"/>
-    </row>
-    <row r="28" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="95"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="138"/>
-      <c r="M28" s="93"/>
-    </row>
-    <row r="29" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="93"/>
-    </row>
-    <row r="30" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="93"/>
-    </row>
-    <row r="31" spans="2:16" s="94" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="95"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="93"/>
-    </row>
-    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="90"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="143"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="88"/>
+    </row>
+    <row r="22" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="143"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="88"/>
+    </row>
+    <row r="23" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="143"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="88"/>
+    </row>
+    <row r="24" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="91"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="143"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="88"/>
+    </row>
+    <row r="25" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="143"/>
+      <c r="L25" s="131"/>
+      <c r="M25" s="88"/>
+    </row>
+    <row r="26" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="143"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="88"/>
+    </row>
+    <row r="27" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="143"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="88"/>
+    </row>
+    <row r="28" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="143"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="88"/>
+    </row>
+    <row r="29" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="143"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="88"/>
+    </row>
+    <row r="30" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="143"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="88"/>
+    </row>
+    <row r="31" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="144"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="88"/>
+    </row>
+    <row r="32" spans="2:16" ht="18" customHeight="1">
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="25"/>
-      <c r="P32" s="26"/>
-    </row>
-    <row r="33" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B33" s="27" t="s">
+      <c r="F32" s="167"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="140">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="145"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="23"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="B33" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33" t="s">
+      <c r="J33" s="146">
+        <f>SUM(J11:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="P33" s="36"/>
-    </row>
-    <row r="34" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42" t="s">
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="33"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="43" t="s">
+      <c r="J34" s="147"/>
+      <c r="K34" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="44"/>
-    </row>
-    <row r="35" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="42" t="s">
+      <c r="L34" s="36"/>
+      <c r="M34" s="41"/>
+    </row>
+    <row r="35" spans="2:16" ht="18" customHeight="1">
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="39" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="46" t="s">
+      <c r="J35" s="147">
+        <f>J33*7%</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="48"/>
-    </row>
-    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="50" t="s">
+      <c r="L35" s="37"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+    </row>
+    <row r="36" spans="2:16" ht="18" customHeight="1">
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="43" t="s">
+      <c r="I36" s="48"/>
+      <c r="J36" s="148">
+        <f>J33+J35-J34</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="53"/>
-      <c r="M36" s="54"/>
-    </row>
-    <row r="37" spans="2:16" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="55" t="s">
+      <c r="L36" s="49"/>
+      <c r="M36" s="50"/>
+    </row>
+    <row r="37" spans="2:16" s="59" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B37" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="56" t="s">
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="55" t="s">
+      <c r="H37" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="60"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="62" t="s">
+      <c r="I37" s="56"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="61"/>
-    </row>
-    <row r="38" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="64" t="s">
+      <c r="M37" s="57"/>
+    </row>
+    <row r="38" spans="2:16" ht="19.5" customHeight="1">
+      <c r="B38" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="65" t="s">
+      <c r="H38" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="68"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="I38" s="62"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="160"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="64"/>
+    </row>
+    <row r="39" spans="2:16">
       <c r="B39" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="148"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="L39" s="149"/>
+      <c r="M39" s="150"/>
+    </row>
+    <row r="40" spans="2:16">
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:16">
       <c r="K41" s="1"/>
     </row>
   </sheetData>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC362736-E782-44E8-9443-D50FF3736115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A9D4AE-DB1A-4689-9F83-70F5C9AD3DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,6 +1341,9 @@
     <xf numFmtId="43" fontId="12" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1406,9 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1872,28 +1872,28 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="0.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.69921875" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.09765625" style="1"/>
-    <col min="16" max="16" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.09765625" style="1"/>
+    <col min="11" max="11" width="11.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
@@ -1955,20 +1955,20 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="154"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="155"/>
     </row>
     <row r="7" spans="2:15" ht="21" customHeight="1">
       <c r="B7" s="70" t="s">
@@ -2021,10 +2021,10 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="156"/>
+      <c r="G9" s="157"/>
       <c r="H9" s="123" t="s">
         <v>29</v>
       </c>
@@ -2034,13 +2034,13 @@
       <c r="J9" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="155" t="s">
+      <c r="K9" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="155" t="s">
+      <c r="L9" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="156"/>
+      <c r="M9" s="157"/>
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1">
       <c r="B10" s="15" t="s">
@@ -2066,9 +2066,9 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157"/>
-      <c r="M10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="159"/>
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1">
       <c r="B11" s="95"/>
@@ -2127,8 +2127,8 @@
       <c r="C14" s="92"/>
       <c r="D14" s="114"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="171"/>
       <c r="H14" s="67"/>
       <c r="I14" s="134"/>
       <c r="J14" s="69">
@@ -2280,8 +2280,8 @@
       <c r="C23" s="91"/>
       <c r="D23" s="87"/>
       <c r="E23" s="92"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="163"/>
       <c r="H23" s="136"/>
       <c r="I23" s="134"/>
       <c r="J23" s="69">
@@ -2297,8 +2297,8 @@
       <c r="C24" s="93"/>
       <c r="D24" s="87"/>
       <c r="E24" s="92"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="165"/>
       <c r="H24" s="136"/>
       <c r="I24" s="134"/>
       <c r="J24" s="69">
@@ -2399,8 +2399,8 @@
       <c r="C30" s="91"/>
       <c r="D30" s="87"/>
       <c r="E30" s="92"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
       <c r="H30" s="136"/>
       <c r="I30" s="134"/>
       <c r="J30" s="69">
@@ -2416,8 +2416,8 @@
       <c r="C31" s="91"/>
       <c r="D31" s="87"/>
       <c r="E31" s="92"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
       <c r="H31" s="136"/>
       <c r="I31" s="134"/>
       <c r="J31" s="69">
@@ -2433,8 +2433,8 @@
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="169"/>
       <c r="H32" s="137"/>
       <c r="I32" s="138"/>
       <c r="J32" s="140">
@@ -2499,10 +2499,10 @@
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="147">
-        <f>J33*7%</f>
+        <f>(J33-J34)*7%</f>
         <v>0</v>
       </c>
-      <c r="K35" s="171" t="s">
+      <c r="K35" s="149" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="37"/>
@@ -2567,8 +2567,8 @@
         <v>24</v>
       </c>
       <c r="I38" s="62"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="160"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="161"/>
       <c r="L38" s="63"/>
       <c r="M38" s="64"/>
     </row>
@@ -2579,8 +2579,8 @@
       <c r="C39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="151"/>
     </row>
     <row r="40" spans="2:16">
       <c r="K40" s="1"/>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A9D4AE-DB1A-4689-9F83-70F5C9AD3DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54BD7E-8D1E-4CE7-8CB3-D30515E51247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-3390" yWindow="4005" windowWidth="21600" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="6" r:id="rId1"/>
@@ -1872,28 +1872,28 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="11.8984375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.296875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.69921875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.09765625" style="1"/>
+    <col min="16" max="16" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
@@ -2608,7 +2608,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54BD7E-8D1E-4CE7-8CB3-D30515E51247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF228F09-F842-463A-BD37-9FD7C460F92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-3390" yWindow="4005" windowWidth="21600" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="6" r:id="rId1"/>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -192,8 +192,10 @@
     <numFmt numFmtId="168" formatCode="##"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="[$-1070000]d/mm/yyyy;@"/>
+    <numFmt numFmtId="171" formatCode="0.00;\-0.00;;@"/>
+    <numFmt numFmtId="172" formatCode="0;\-0;;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -909,7 +911,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,9 +1113,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,9 +1220,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1314,24 +1310,6 @@
     <xf numFmtId="170" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="43" fontId="12" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1343,6 +1321,39 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="16" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="16" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="19" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="19" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="19" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1451,7 +1462,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>93345</xdr:colOff>
+      <xdr:colOff>106952</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>18499</xdr:rowOff>
     </xdr:to>
@@ -1872,143 +1883,143 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="0.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.69921875" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.09765625" style="1"/>
-    <col min="16" max="16" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.09765625" style="1"/>
+    <col min="11" max="11" width="16.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-    </row>
-    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+    </row>
+    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="5"/>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-    </row>
-    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+    </row>
+    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D3" s="5"/>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="122" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E4" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-    </row>
-    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1">
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+    </row>
+    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="J5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B6" s="152" t="s">
+    <row r="6" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="155"/>
-    </row>
-    <row r="7" spans="2:15" ht="21" customHeight="1">
-      <c r="B7" s="70" t="s">
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="158"/>
+    </row>
+    <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="70" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="69" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="125"/>
+      <c r="J7" s="123"/>
       <c r="K7" s="26"/>
       <c r="L7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="139"/>
-    </row>
-    <row r="8" spans="2:15" ht="21" customHeight="1">
-      <c r="B8" s="74" t="s">
+      <c r="M7" s="137"/>
+    </row>
+    <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="10"/>
       <c r="J8" s="48"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="128" t="s">
+      <c r="K8" s="124"/>
+      <c r="L8" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="127"/>
-    </row>
-    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1">
+      <c r="M8" s="125"/>
+    </row>
+    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
@@ -2021,28 +2032,28 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="156" t="s">
+      <c r="F9" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="123" t="s">
+      <c r="G9" s="160"/>
+      <c r="H9" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="124" t="s">
+      <c r="J9" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="156" t="s">
+      <c r="K9" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="156" t="s">
+      <c r="L9" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="157"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1">
+      <c r="M9" s="160"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2055,8 +2066,8 @@
       <c r="E10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="17" t="s">
         <v>17</v>
       </c>
@@ -2066,399 +2077,399 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="159"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="95"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="81"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="162"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="94"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="67"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="69">
+      <c r="I11" s="132"/>
+      <c r="J11" s="142">
         <f>K11*C11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="85"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="84"/>
       <c r="O11" s="43"/>
     </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="96"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="130"/>
+    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="95"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="128"/>
       <c r="H12" s="67"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="69">
+      <c r="I12" s="132"/>
+      <c r="J12" s="142">
         <f t="shared" ref="J12:J32" si="0">K12*C12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="142"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="85"/>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1">
-      <c r="B13" s="93"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="107"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="84"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="92"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="67"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="69">
+      <c r="I13" s="132"/>
+      <c r="J13" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="142"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="85"/>
-    </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1">
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="171"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="84"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="90"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="174"/>
       <c r="H14" s="67"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="69">
+      <c r="I14" s="132"/>
+      <c r="J14" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="142"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="85"/>
-    </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="82"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="84"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="89"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="67"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="69">
+      <c r="I15" s="132"/>
+      <c r="J15" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="142"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="85"/>
-    </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1">
-      <c r="B16" s="91"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="84"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="84"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="90"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="67"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="69">
+      <c r="I16" s="132"/>
+      <c r="J16" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="143"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="85"/>
-    </row>
-    <row r="17" spans="2:16" ht="18" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="98"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="89"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="67"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="69">
+      <c r="I17" s="132"/>
+      <c r="J17" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="143"/>
-      <c r="L17" s="131"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="129"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="2:16" ht="18" customHeight="1">
-      <c r="B18" s="91"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="69">
+    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="90"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="143"/>
-      <c r="L18" s="131"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="129"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1">
-      <c r="B19" s="90"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="69">
+    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="89"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="131"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="129"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="18" customHeight="1">
-      <c r="B20" s="91"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="69">
+    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="90"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="143"/>
-      <c r="L20" s="131"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="129"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B21" s="90"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="69">
+    <row r="21" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="89"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="143"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="88"/>
-    </row>
-    <row r="22" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="69">
+      <c r="K21" s="146"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="87"/>
+    </row>
+    <row r="22" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="90"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="143"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="88"/>
-    </row>
-    <row r="23" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="69">
+      <c r="K22" s="146"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="87"/>
+    </row>
+    <row r="23" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="89"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="143"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="88"/>
-    </row>
-    <row r="24" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B24" s="91"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="69">
+      <c r="K23" s="146"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="87"/>
+    </row>
+    <row r="24" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="90"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="143"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="88"/>
-    </row>
-    <row r="25" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="69">
+      <c r="K24" s="146"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="87"/>
+    </row>
+    <row r="25" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="89"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="143"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="88"/>
-    </row>
-    <row r="26" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="69">
+      <c r="K25" s="146"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="87"/>
+    </row>
+    <row r="26" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="89"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="143"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="88"/>
-    </row>
-    <row r="27" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="69">
+      <c r="K26" s="146"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="87"/>
+    </row>
+    <row r="27" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="89"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="143"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="88"/>
-    </row>
-    <row r="28" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="69">
+      <c r="K27" s="146"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="87"/>
+    </row>
+    <row r="28" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="89"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="143"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="88"/>
-    </row>
-    <row r="29" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="134"/>
-      <c r="J29" s="69">
+      <c r="K28" s="146"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="87"/>
+    </row>
+    <row r="29" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="89"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="143"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="88"/>
-    </row>
-    <row r="30" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="69">
+      <c r="K29" s="146"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="87"/>
+    </row>
+    <row r="30" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="90"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="143"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="88"/>
-    </row>
-    <row r="31" spans="2:16" s="89" customFormat="1" ht="18" customHeight="1">
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="69">
+      <c r="K30" s="146"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="87"/>
+    </row>
+    <row r="31" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B31" s="89"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="142">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="144"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="88"/>
-    </row>
-    <row r="32" spans="2:16" ht="18" customHeight="1">
+      <c r="K31" s="147"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="87"/>
+    </row>
+    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
+      <c r="C32" s="152"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="140">
+      <c r="F32" s="171"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="145"/>
-      <c r="L32" s="133"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="131"/>
       <c r="M32" s="23"/>
       <c r="P32" s="24"/>
     </row>
-    <row r="33" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="26"/>
-      <c r="D33" s="100"/>
+      <c r="D33" s="99"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="28"/>
       <c r="H33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="146">
+      <c r="J33" s="138">
         <f>SUM(J11:J32)</f>
         <v>0</v>
       </c>
@@ -2470,27 +2481,27 @@
       <c r="N33" s="33"/>
       <c r="P33" s="33"/>
     </row>
-    <row r="34" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="34"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="102"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="38"/>
       <c r="H34" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="147"/>
+      <c r="J34" s="139"/>
       <c r="K34" s="40" t="s">
         <v>7</v>
       </c>
       <c r="L34" s="36"/>
       <c r="M34" s="41"/>
     </row>
-    <row r="35" spans="2:16" ht="18" customHeight="1">
+    <row r="35" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
-      <c r="D35" s="101"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
       <c r="G35" s="66"/>
@@ -2498,21 +2509,21 @@
         <v>8</v>
       </c>
       <c r="I35" s="1"/>
-      <c r="J35" s="147">
+      <c r="J35" s="139">
         <f>(J33-J34)*7%</f>
         <v>0</v>
       </c>
-      <c r="K35" s="149" t="s">
+      <c r="K35" s="141" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="37"/>
       <c r="M35" s="44"/>
       <c r="N35" s="45"/>
     </row>
-    <row r="36" spans="2:16" ht="18" customHeight="1">
+    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="86"/>
+      <c r="D36" s="85"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
       <c r="G36" s="46"/>
@@ -2520,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="48"/>
-      <c r="J36" s="148">
+      <c r="J36" s="140">
         <f>J33+J35-J34</f>
         <v>0</v>
       </c>
@@ -2530,7 +2541,7 @@
       <c r="L36" s="49"/>
       <c r="M36" s="50"/>
     </row>
-    <row r="37" spans="2:16" s="59" customFormat="1" ht="23.25" customHeight="1">
+    <row r="37" spans="2:16" s="59" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B37" s="51" t="s">
         <v>25</v>
       </c>
@@ -2552,7 +2563,7 @@
       </c>
       <c r="M37" s="57"/>
     </row>
-    <row r="38" spans="2:16" ht="19.5" customHeight="1">
+    <row r="38" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B38" s="60" t="s">
         <v>35</v>
       </c>
@@ -2567,25 +2578,25 @@
         <v>24</v>
       </c>
       <c r="I38" s="62"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="161"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="164"/>
       <c r="L38" s="63"/>
       <c r="M38" s="64"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.5">
       <c r="B39" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="151"/>
-    </row>
-    <row r="40" spans="2:16">
+      <c r="L39" s="153"/>
+      <c r="M39" s="154"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.5">
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.5">
       <c r="K41" s="1"/>
     </row>
   </sheetData>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF228F09-F842-463A-BD37-9FD7C460F92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B920CE1-41DB-4FF6-AB8F-2F692CF5317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -195,7 +195,7 @@
     <numFmt numFmtId="171" formatCode="0.00;\-0.00;;@"/>
     <numFmt numFmtId="172" formatCode="0;\-0;;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -280,12 +280,6 @@
       <sz val="15"/>
       <name val="Browallia New"/>
       <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -362,20 +356,6 @@
     <font>
       <sz val="15"/>
       <color rgb="FFFF0000"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="1"/>
       <name val="Cordia New"/>
       <family val="2"/>
       <charset val="222"/>
@@ -430,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -736,58 +716,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="dotted">
         <color indexed="64"/>
@@ -882,6 +810,21 @@
         <color indexed="64"/>
       </right>
       <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -911,7 +854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,18 +916,6 @@
     <xf numFmtId="43" fontId="8" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1107,28 +1038,28 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,128 +1068,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="25" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,88 +1208,64 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="16" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="16" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="16" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="19" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="18" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="19" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="18" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="22" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="19" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="18" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,35 +1298,29 @@
     <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1881,145 +1782,145 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="16.59765625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.69921875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.09765625" style="1"/>
+    <col min="16" max="16" width="11.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-    </row>
-    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+    </row>
+    <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
-      <c r="E2" s="117" t="s">
+      <c r="E2" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-    </row>
-    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+    </row>
+    <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D3" s="5"/>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E4" s="120" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="E4" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="117"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-    </row>
-    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F4" s="113"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+    </row>
+    <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1">
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="J5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="155" t="s">
+    <row r="6" spans="2:15" ht="25.5" customHeight="1">
+      <c r="B6" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157"/>
-      <c r="M6" s="158"/>
-    </row>
-    <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="146"/>
+    </row>
+    <row r="7" spans="2:15" ht="21" customHeight="1">
+      <c r="B7" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="65" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25" t="s">
+      <c r="J7" s="119"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="137"/>
-    </row>
-    <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="73" t="s">
+      <c r="M7" s="129"/>
+    </row>
+    <row r="8" spans="2:15" ht="21" customHeight="1">
+      <c r="B8" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="73"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="126" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="125"/>
-    </row>
-    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="M8" s="121"/>
+    </row>
+    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
@@ -2032,28 +1933,28 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="159" t="s">
+      <c r="F9" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="121" t="s">
+      <c r="G9" s="148"/>
+      <c r="H9" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="122" t="s">
+      <c r="I9" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="J9" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="159" t="s">
+      <c r="K9" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="159" t="s">
+      <c r="L9" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="160"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="M9" s="148"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" customHeight="1">
       <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2063,11 +1964,11 @@
       <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="17" t="s">
         <v>17</v>
       </c>
@@ -2077,541 +1978,469 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="162"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="94"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="142">
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="150"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" customHeight="1">
+      <c r="B11" s="90"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="134">
         <f>K11*C11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="144"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="84"/>
-      <c r="O11" s="43"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="95"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="142">
-        <f t="shared" ref="J12:J32" si="0">K12*C12</f>
+      <c r="K11" s="135"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="80"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" customHeight="1">
+      <c r="B12" s="91"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="134">
+        <f t="shared" ref="J12:J28" si="0">K12*C12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="145"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="84"/>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="92"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="142">
+      <c r="K12" s="136"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="80"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" customHeight="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="84"/>
-    </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="90"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="142">
+      <c r="K13" s="136"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="80"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" customHeight="1">
+      <c r="B14" s="86"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="145"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="84"/>
-    </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="89"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="142">
+      <c r="K14" s="136"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="80"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" customHeight="1">
+      <c r="B15" s="85"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="84"/>
-    </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="90"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="142">
+      <c r="K15" s="136"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="80"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" customHeight="1">
+      <c r="B16" s="86"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="146"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="84"/>
-    </row>
-    <row r="17" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="89"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="142">
+      <c r="K16" s="137"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="80"/>
+    </row>
+    <row r="17" spans="2:16" ht="18" customHeight="1">
+      <c r="B17" s="85"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="146"/>
-      <c r="L17" s="129"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="90"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="142">
+    <row r="18" spans="2:16" ht="18" customHeight="1">
+      <c r="B18" s="86"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="146"/>
-      <c r="L18" s="129"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="89"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="142">
+    <row r="19" spans="2:16" ht="18" customHeight="1">
+      <c r="B19" s="85"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="146"/>
-      <c r="L19" s="129"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="90"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="142">
+    <row r="20" spans="2:16" ht="18" customHeight="1">
+      <c r="B20" s="86"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="146"/>
-      <c r="L20" s="129"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="89"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="142">
+    <row r="21" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="85"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="146"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="87"/>
-    </row>
-    <row r="22" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="90"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="142">
+      <c r="K21" s="137"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="83"/>
+    </row>
+    <row r="22" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="86"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="146"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="87"/>
-    </row>
-    <row r="23" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="89"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="142">
+      <c r="K22" s="137"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="83"/>
+    </row>
+    <row r="23" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B23" s="85"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="146"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="87"/>
-    </row>
-    <row r="24" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="90"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="142">
+      <c r="K23" s="137"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="83"/>
+    </row>
+    <row r="24" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="86"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="146"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="87"/>
-    </row>
-    <row r="25" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="89"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="142">
+      <c r="K24" s="137"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="83"/>
+    </row>
+    <row r="25" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B25" s="85"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="146"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="89"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="142">
+      <c r="K25" s="137"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="83"/>
+    </row>
+    <row r="26" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="85"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="146"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="87"/>
-    </row>
-    <row r="27" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="89"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="142">
+      <c r="K26" s="137"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="83"/>
+    </row>
+    <row r="27" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B27" s="85"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="146"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="87"/>
-    </row>
-    <row r="28" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="89"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="142">
+      <c r="K27" s="137"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="83"/>
+    </row>
+    <row r="28" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="85"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="146"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="87"/>
-    </row>
-    <row r="29" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="89"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="142">
-        <f t="shared" si="0"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="83"/>
+    </row>
+    <row r="29" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="B29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="130">
+        <f>SUM(J11:J28)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="146"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="87"/>
-    </row>
-    <row r="30" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="90"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="142">
-        <f t="shared" si="0"/>
+      <c r="K29" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
+      <c r="P29" s="29"/>
+    </row>
+    <row r="30" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="131"/>
+      <c r="K30" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="32"/>
+      <c r="M30" s="37"/>
+    </row>
+    <row r="31" spans="2:16" ht="18" customHeight="1">
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="131">
+        <f>(J29-J30)*7%</f>
         <v>0</v>
       </c>
-      <c r="K30" s="146"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="87"/>
-    </row>
-    <row r="31" spans="2:16" s="88" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B31" s="89"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="142">
-        <f t="shared" si="0"/>
+      <c r="K31" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="33"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="41"/>
+    </row>
+    <row r="32" spans="2:16" ht="18" customHeight="1">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="132">
+        <f>J29+J31-J30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="147"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="87"/>
-    </row>
-    <row r="32" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="21"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="143">
-        <f t="shared" si="0"/>
+      <c r="K32" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
+    </row>
+    <row r="33" spans="2:13" s="55" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B33" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="52"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" spans="2:13" ht="19.5" customHeight="1">
+      <c r="B34" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="58"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="60"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="148"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="23"/>
-      <c r="P32" s="24"/>
-    </row>
-    <row r="33" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="138">
-        <f>SUM(J11:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
-      <c r="P33" s="33"/>
-    </row>
-    <row r="34" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="139"/>
-      <c r="K34" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="36"/>
-      <c r="M34" s="41"/>
-    </row>
-    <row r="35" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="139">
-        <f>(J33-J34)*7%</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="141" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="37"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="45"/>
-    </row>
-    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="140">
-        <f>J33+J35-J34</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
-    </row>
-    <row r="37" spans="2:16" s="59" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="57"/>
-    </row>
-    <row r="38" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="62"/>
-      <c r="J38" s="163"/>
-      <c r="K38" s="164"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="64"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.5">
-      <c r="B39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="154"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.5">
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.5">
-      <c r="K41" s="1"/>
+      <c r="C35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="142"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="K37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L39:M39"/>
+  <mergeCells count="9">
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:M10"/>
-    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J34:K34"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F30:G30"/>
     <mergeCell ref="F14:G14"/>
   </mergeCells>
   <hyperlinks>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B920CE1-41DB-4FF6-AB8F-2F692CF5317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31145794-E45E-4D12-851A-9A4DBE7811D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,8 +192,8 @@
     <numFmt numFmtId="168" formatCode="##"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="[$-1070000]d/mm/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="0.00;\-0.00;;@"/>
-    <numFmt numFmtId="172" formatCode="0;\-0;;@"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00;\-#,##0.00;;@"/>
+    <numFmt numFmtId="172" formatCode="#,##0;\-#,##0;;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1229,17 +1229,14 @@
     <xf numFmtId="170" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="15" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,6 +1259,9 @@
     <xf numFmtId="172" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1316,11 +1316,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24"/>
@@ -1984,308 +1984,308 @@
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1">
       <c r="B11" s="90"/>
-      <c r="C11" s="138"/>
+      <c r="C11" s="137"/>
       <c r="D11" s="107"/>
       <c r="E11" s="104"/>
       <c r="F11" s="98"/>
       <c r="G11" s="76"/>
       <c r="H11" s="63"/>
       <c r="I11" s="126"/>
-      <c r="J11" s="134">
+      <c r="J11" s="133">
         <f>K11*C11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="135"/>
+      <c r="K11" s="134"/>
       <c r="L11" s="125"/>
       <c r="M11" s="80"/>
       <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:15" ht="18" customHeight="1">
       <c r="B12" s="91"/>
-      <c r="C12" s="138"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="92"/>
       <c r="E12" s="105"/>
       <c r="F12" s="99"/>
       <c r="G12" s="124"/>
       <c r="H12" s="63"/>
       <c r="I12" s="126"/>
-      <c r="J12" s="134">
+      <c r="J12" s="133">
         <f t="shared" ref="J12:J28" si="0">K12*C12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="136"/>
+      <c r="K12" s="135"/>
       <c r="L12" s="125"/>
       <c r="M12" s="80"/>
     </row>
     <row r="13" spans="2:15" ht="18" customHeight="1">
       <c r="B13" s="88"/>
-      <c r="C13" s="139"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="92"/>
       <c r="E13" s="105"/>
       <c r="F13" s="109"/>
       <c r="G13" s="102"/>
       <c r="H13" s="63"/>
       <c r="I13" s="126"/>
-      <c r="J13" s="134">
+      <c r="J13" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="136"/>
+      <c r="K13" s="135"/>
       <c r="L13" s="125"/>
       <c r="M13" s="80"/>
     </row>
     <row r="14" spans="2:15" ht="18" customHeight="1">
       <c r="B14" s="86"/>
-      <c r="C14" s="139"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="108"/>
       <c r="E14" s="105"/>
       <c r="F14" s="157"/>
       <c r="G14" s="158"/>
       <c r="H14" s="63"/>
       <c r="I14" s="126"/>
-      <c r="J14" s="134">
+      <c r="J14" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="136"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="125"/>
       <c r="M14" s="80"/>
     </row>
     <row r="15" spans="2:15" ht="18" customHeight="1">
       <c r="B15" s="85"/>
-      <c r="C15" s="139"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="92"/>
       <c r="E15" s="105"/>
       <c r="F15" s="99"/>
       <c r="G15" s="77"/>
       <c r="H15" s="63"/>
       <c r="I15" s="126"/>
-      <c r="J15" s="134">
+      <c r="J15" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="136"/>
+      <c r="K15" s="135"/>
       <c r="L15" s="125"/>
       <c r="M15" s="80"/>
     </row>
     <row r="16" spans="2:15" ht="18" customHeight="1">
       <c r="B16" s="86"/>
-      <c r="C16" s="138"/>
+      <c r="C16" s="137"/>
       <c r="D16" s="92"/>
       <c r="E16" s="87"/>
       <c r="F16" s="99"/>
       <c r="G16" s="79"/>
       <c r="H16" s="63"/>
       <c r="I16" s="126"/>
-      <c r="J16" s="134">
+      <c r="J16" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="137"/>
+      <c r="K16" s="136"/>
       <c r="L16" s="125"/>
       <c r="M16" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="18" customHeight="1">
       <c r="B17" s="85"/>
-      <c r="C17" s="138"/>
+      <c r="C17" s="137"/>
       <c r="D17" s="108"/>
       <c r="E17" s="87"/>
       <c r="F17" s="100"/>
       <c r="G17" s="93"/>
       <c r="H17" s="63"/>
       <c r="I17" s="126"/>
-      <c r="J17" s="134">
+      <c r="J17" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="137"/>
+      <c r="K17" s="136"/>
       <c r="L17" s="125"/>
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:16" ht="18" customHeight="1">
       <c r="B18" s="86"/>
-      <c r="C18" s="138"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="92"/>
       <c r="E18" s="87"/>
       <c r="F18" s="101"/>
       <c r="G18" s="94"/>
       <c r="H18" s="127"/>
       <c r="I18" s="126"/>
-      <c r="J18" s="134">
+      <c r="J18" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="137"/>
+      <c r="K18" s="136"/>
       <c r="L18" s="125"/>
       <c r="M18" s="20"/>
     </row>
     <row r="19" spans="2:16" ht="18" customHeight="1">
       <c r="B19" s="85"/>
-      <c r="C19" s="138"/>
+      <c r="C19" s="137"/>
       <c r="D19" s="92"/>
       <c r="E19" s="87"/>
       <c r="F19" s="101"/>
       <c r="G19" s="94"/>
       <c r="H19" s="127"/>
       <c r="I19" s="126"/>
-      <c r="J19" s="134">
+      <c r="J19" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="137"/>
+      <c r="K19" s="136"/>
       <c r="L19" s="125"/>
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="2:16" ht="18" customHeight="1">
       <c r="B20" s="86"/>
-      <c r="C20" s="138"/>
+      <c r="C20" s="137"/>
       <c r="D20" s="108"/>
       <c r="E20" s="87"/>
       <c r="F20" s="123"/>
       <c r="G20" s="93"/>
       <c r="H20" s="127"/>
       <c r="I20" s="126"/>
-      <c r="J20" s="134">
+      <c r="J20" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="137"/>
+      <c r="K20" s="136"/>
       <c r="L20" s="125"/>
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B21" s="85"/>
-      <c r="C21" s="138"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="92"/>
       <c r="E21" s="106"/>
       <c r="F21" s="101"/>
       <c r="G21" s="103"/>
       <c r="H21" s="128"/>
       <c r="I21" s="126"/>
-      <c r="J21" s="134">
+      <c r="J21" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="137"/>
+      <c r="K21" s="136"/>
       <c r="L21" s="125"/>
       <c r="M21" s="83"/>
     </row>
     <row r="22" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B22" s="86"/>
-      <c r="C22" s="140"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="82"/>
       <c r="E22" s="87"/>
       <c r="F22" s="101"/>
       <c r="G22" s="103"/>
       <c r="H22" s="128"/>
       <c r="I22" s="126"/>
-      <c r="J22" s="134">
+      <c r="J22" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="137"/>
+      <c r="K22" s="136"/>
       <c r="L22" s="125"/>
       <c r="M22" s="83"/>
     </row>
     <row r="23" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B23" s="85"/>
-      <c r="C23" s="140"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="82"/>
       <c r="E23" s="87"/>
       <c r="F23" s="153"/>
       <c r="G23" s="154"/>
       <c r="H23" s="128"/>
       <c r="I23" s="126"/>
-      <c r="J23" s="134">
+      <c r="J23" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="137"/>
+      <c r="K23" s="136"/>
       <c r="L23" s="125"/>
       <c r="M23" s="83"/>
     </row>
     <row r="24" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B24" s="86"/>
-      <c r="C24" s="140"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="82"/>
       <c r="E24" s="87"/>
       <c r="F24" s="155"/>
       <c r="G24" s="156"/>
       <c r="H24" s="128"/>
       <c r="I24" s="126"/>
-      <c r="J24" s="134">
+      <c r="J24" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="137"/>
+      <c r="K24" s="136"/>
       <c r="L24" s="125"/>
       <c r="M24" s="83"/>
     </row>
     <row r="25" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B25" s="85"/>
-      <c r="C25" s="140"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="82"/>
       <c r="E25" s="87"/>
       <c r="F25" s="73"/>
       <c r="G25" s="89"/>
       <c r="H25" s="128"/>
       <c r="I25" s="126"/>
-      <c r="J25" s="134">
+      <c r="J25" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="137"/>
+      <c r="K25" s="136"/>
       <c r="L25" s="125"/>
       <c r="M25" s="83"/>
     </row>
     <row r="26" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B26" s="85"/>
-      <c r="C26" s="140"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="82"/>
       <c r="E26" s="87"/>
       <c r="F26" s="78"/>
       <c r="G26" s="89"/>
       <c r="H26" s="128"/>
       <c r="I26" s="126"/>
-      <c r="J26" s="134">
+      <c r="J26" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="137"/>
+      <c r="K26" s="136"/>
       <c r="L26" s="125"/>
       <c r="M26" s="83"/>
     </row>
     <row r="27" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B27" s="85"/>
-      <c r="C27" s="140"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="82"/>
       <c r="E27" s="87"/>
       <c r="F27" s="73"/>
       <c r="G27" s="89"/>
       <c r="H27" s="128"/>
       <c r="I27" s="126"/>
-      <c r="J27" s="134">
+      <c r="J27" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="137"/>
+      <c r="K27" s="136"/>
       <c r="L27" s="125"/>
       <c r="M27" s="83"/>
     </row>
     <row r="28" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
       <c r="B28" s="85"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="159"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="87"/>
       <c r="F28" s="78"/>
       <c r="G28" s="89"/>
       <c r="H28" s="128"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="134">
+      <c r="I28" s="132"/>
+      <c r="J28" s="133">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="137"/>
+      <c r="K28" s="136"/>
       <c r="L28" s="125"/>
       <c r="M28" s="83"/>
     </row>
@@ -2301,7 +2301,7 @@
       <c r="H29" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="130">
+      <c r="J29" s="159">
         <f>SUM(J11:J28)</f>
         <v>0</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="H30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="131"/>
+      <c r="J30" s="140"/>
       <c r="K30" s="36" t="s">
         <v>7</v>
       </c>
@@ -2341,11 +2341,11 @@
         <v>8</v>
       </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="131">
+      <c r="J31" s="140">
         <f>(J29-J30)*7%</f>
         <v>0</v>
       </c>
-      <c r="K31" s="133" t="s">
+      <c r="K31" s="130" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="33"/>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="44"/>
-      <c r="J32" s="132">
+      <c r="J32" s="160">
         <f>J29+J31-J30</f>
         <v>0</v>
       </c>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31145794-E45E-4D12-851A-9A4DBE7811D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FACDBE-1362-437C-973D-AE50EF3F8CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1'!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -105,9 +105,6 @@
     <t>ราคารวม</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -163,6 +160,12 @@
     <t xml:space="preserve">        www.mot.co.th  </t>
   </si>
   <si>
+    <t>PR No:                    Page</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
     <r>
       <t>Project No  :</t>
     </r>
@@ -172,18 +175,15 @@
         <rFont val="Cordia New"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">  </t>
     </r>
-  </si>
-  <si>
-    <t>PR No:                    Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -191,11 +191,10 @@
     <numFmt numFmtId="167" formatCode="#,###.#"/>
     <numFmt numFmtId="168" formatCode="##"/>
     <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="[$-1070000]d/mm/yyyy;@"/>
-    <numFmt numFmtId="171" formatCode="#,##0.00;\-#,##0.00;;@"/>
-    <numFmt numFmtId="172" formatCode="#,##0;\-#,##0;;@"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00;\-#,##0.00;;@"/>
+    <numFmt numFmtId="171" formatCode="#,##0;\-#,##0;;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -280,6 +279,7 @@
       <sz val="15"/>
       <name val="Browallia New"/>
       <family val="2"/>
+      <charset val="222"/>
     </font>
     <font>
       <sz val="16"/>
@@ -361,15 +361,26 @@
       <charset val="222"/>
     </font>
     <font>
+      <sz val="15"/>
+      <name val="Westend"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="Cordia New"/>
       <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -410,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -637,6 +648,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -716,6 +740,58 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="dotted">
         <color indexed="64"/>
@@ -748,6 +824,72 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,62 +914,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -854,7 +940,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,7 +999,25 @@
     <xf numFmtId="43" fontId="12" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,9 +1142,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,67 +1169,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1137,37 +1206,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,59 +1251,150 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="13" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="4" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="4" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="18" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="21" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1268,12 +1402,12 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,29 +1432,29 @@
     <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="30" fillId="4" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1363,7 +1497,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>106952</xdr:colOff>
+      <xdr:colOff>93345</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>18499</xdr:rowOff>
     </xdr:to>
@@ -1782,83 +1916,83 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="0.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.09765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.09765625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.69921875" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.09765625" style="1"/>
-    <col min="16" max="16" width="11.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.09765625" style="1"/>
+    <col min="11" max="11" width="16.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
-      <c r="E2" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
+      <c r="E2" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D3" s="5"/>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="96"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="E4" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="113"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
     </row>
     <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1">
       <c r="F5" s="7"/>
@@ -1867,58 +2001,58 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B6" s="143" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
-      <c r="M6" s="146"/>
+      <c r="B6" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="164"/>
     </row>
     <row r="7" spans="2:15" ht="21" customHeight="1">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65" t="s">
-        <v>34</v>
-      </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="129"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1">
-      <c r="B8" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="121"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="B9" s="13" t="s">
@@ -1933,26 +2067,26 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="148"/>
-      <c r="H9" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="118" t="s">
+      <c r="G9" s="166"/>
+      <c r="H9" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J9" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="147" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="148"/>
+      <c r="K9" s="165" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="166"/>
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1">
       <c r="B10" s="15" t="s">
@@ -1964,11 +2098,11 @@
       <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="17" t="s">
         <v>17</v>
       </c>
@@ -1978,470 +2112,455 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="150"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="168"/>
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="90"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="133">
+      <c r="B11" s="87"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="143">
         <f>K11*C11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="134"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="80"/>
-      <c r="O11" s="39"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="113"/>
+      <c r="O11" s="45"/>
     </row>
     <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="91"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="133">
-        <f t="shared" ref="J12:J28" si="0">K12*C12</f>
+      <c r="B12" s="85"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="143">
+        <f t="shared" ref="J12:J27" si="0">K12*C12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="135"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="80"/>
-    </row>
-    <row r="13" spans="2:15" ht="18" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="105"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
+    </row>
+    <row r="13" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B13" s="84"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="109"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="133">
+      <c r="G13" s="110"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="135"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="80"/>
-    </row>
-    <row r="14" spans="2:15" ht="18" customHeight="1">
-      <c r="B14" s="86"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="133">
+      <c r="K13" s="148"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="116"/>
+    </row>
+    <row r="14" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B14" s="85"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="135"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="80"/>
-    </row>
-    <row r="15" spans="2:15" ht="18" customHeight="1">
+      <c r="K14" s="148"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="116"/>
+    </row>
+    <row r="15" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
       <c r="B15" s="85"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="133">
+      <c r="C15" s="154"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="135"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="80"/>
-    </row>
-    <row r="16" spans="2:15" ht="18" customHeight="1">
-      <c r="B16" s="86"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="133">
+      <c r="K15" s="148"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="116"/>
+    </row>
+    <row r="16" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B16" s="130"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="134"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="136"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="80"/>
-    </row>
-    <row r="17" spans="2:16" ht="18" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="133">
+      <c r="K16" s="148"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="116"/>
+    </row>
+    <row r="17" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B17" s="84"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="136"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="2:16" ht="18" customHeight="1">
-      <c r="B18" s="86"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="133">
+      <c r="K17" s="143"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="116"/>
+    </row>
+    <row r="18" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B18" s="84"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="136"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="2:16" ht="18" customHeight="1">
-      <c r="B19" s="85"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="133">
+      <c r="K18" s="148"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="116"/>
+    </row>
+    <row r="19" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B19" s="130"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="136"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="2:16" ht="18" customHeight="1">
-      <c r="B20" s="86"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="133">
+      <c r="K19" s="149"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="116"/>
+    </row>
+    <row r="20" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B20" s="84"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="136"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="B21" s="85"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="133">
+      <c r="K20" s="149"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="116"/>
+    </row>
+    <row r="21" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="84"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="136"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="83"/>
-    </row>
-    <row r="22" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="86"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="133">
+      <c r="K21" s="149"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="116"/>
+    </row>
+    <row r="22" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="85"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="136"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="83"/>
-    </row>
-    <row r="23" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
+      <c r="K22" s="149"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="116"/>
+    </row>
+    <row r="23" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
       <c r="B23" s="85"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="133">
+      <c r="C23" s="154"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="83"/>
-    </row>
-    <row r="24" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="B24" s="86"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="133">
+      <c r="K23" s="149"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="116"/>
+    </row>
+    <row r="24" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="85"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="136"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="83"/>
-    </row>
-    <row r="25" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="133">
+      <c r="K24" s="149"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="116"/>
+    </row>
+    <row r="25" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B25" s="84"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="136"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="83"/>
-    </row>
-    <row r="26" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="85"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="128"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="116"/>
+    </row>
+    <row r="26" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="120"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="125"/>
       <c r="I26" s="126"/>
-      <c r="J26" s="133">
+      <c r="J26" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="136"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="83"/>
-    </row>
-    <row r="27" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="85"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="133">
+      <c r="K26" s="151"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="128"/>
+    </row>
+    <row r="27" spans="2:16" ht="18" customHeight="1">
+      <c r="B27" s="22"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="136"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="83"/>
-    </row>
-    <row r="28" spans="2:16" s="84" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="85"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="133">
-        <f t="shared" si="0"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="119"/>
+      <c r="P27" s="26"/>
+    </row>
+    <row r="28" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="145">
+        <f>SUM(J11:J27)-J29</f>
         <v>0</v>
       </c>
-      <c r="K28" s="136"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="83"/>
+      <c r="K28" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="35"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="159">
-        <f>SUM(J11:J28)</f>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="146"/>
+      <c r="K29" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="M29" s="43"/>
+    </row>
+    <row r="30" spans="2:16" ht="18" customHeight="1">
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="146">
+        <f>J28*0.07</f>
         <v>0</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="P29" s="29"/>
-    </row>
-    <row r="30" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="140"/>
-      <c r="K30" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="32"/>
-      <c r="M30" s="37"/>
+      <c r="K30" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="39"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
     </row>
     <row r="31" spans="2:16" ht="18" customHeight="1">
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="140">
-        <f>(J29-J30)*7%</f>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="50"/>
+      <c r="J31" s="147">
+        <f>J28+J30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="130" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="33"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="41"/>
-    </row>
-    <row r="32" spans="2:16" ht="18" customHeight="1">
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="160">
-        <f>J29+J31-J30</f>
+      <c r="K31" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="51"/>
+      <c r="M31" s="52"/>
+    </row>
+    <row r="32" spans="2:16" s="61" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B32" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="58"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" spans="2:13" ht="19.5" customHeight="1">
+      <c r="B33" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="64"/>
+      <c r="J33" s="169"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="66"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K32" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
-    </row>
-    <row r="33" spans="2:13" s="55" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B33" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="53"/>
-    </row>
-    <row r="34" spans="2:13" ht="19.5" customHeight="1">
-      <c r="B34" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="58"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="60"/>
+      <c r="C34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="160"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="142"/>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="2:13">
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="2:13">
-      <c r="K37" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L35:M35"/>
+  <mergeCells count="11">
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:M10"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="www.mot.co.th  " xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FACDBE-1362-437C-973D-AE50EF3F8CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A525E6-69CC-4329-A575-2563DECD8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00;\-#,##0.00;;@"/>
     <numFmt numFmtId="171" formatCode="#,##0;\-#,##0;;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -276,12 +276,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Browallia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
       <sz val="16"/>
       <name val="Angsana New"/>
       <family val="1"/>
@@ -361,10 +355,6 @@
       <charset val="222"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Westend"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Cordia New"/>
@@ -381,6 +371,11 @@
       <color rgb="FF000000"/>
       <name val="Angsana New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <name val="Westend"/>
+      <charset val="222"/>
     </font>
   </fonts>
   <fills count="7">
@@ -940,7 +935,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -999,22 +994,10 @@
     <xf numFmtId="43" fontId="12" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1145,22 +1128,22 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,64 +1158,61 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,104 +1234,92 @@
     <xf numFmtId="14" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="14" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="12" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,43 +1331,43 @@
     <xf numFmtId="170" fontId="12" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="18" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="21" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="21" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="14" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="8" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="21" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="20" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,29 +1400,53 @@
     <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="4" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="4" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="30" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1919,80 +1911,80 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="2" customWidth="1"/>
     <col min="10" max="10" width="15" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="16.59765625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.69921875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.09765625" style="1"/>
+    <col min="16" max="16" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.09765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D3" s="5"/>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
     </row>
     <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
     </row>
     <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1">
       <c r="F5" s="7"/>
@@ -2001,58 +1993,58 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="164"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="155"/>
     </row>
     <row r="7" spans="2:15" ht="21" customHeight="1">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="70" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="66" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27" t="s">
+      <c r="J7" s="97"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="106"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="74"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="105" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="104"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1">
       <c r="B9" s="13" t="s">
@@ -2067,26 +2059,26 @@
       <c r="E9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="165" t="s">
+      <c r="F9" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="166"/>
-      <c r="H9" s="100" t="s">
+      <c r="G9" s="157"/>
+      <c r="H9" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="101" t="s">
+      <c r="I9" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="101" t="s">
+      <c r="J9" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="165" t="s">
+      <c r="K9" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="165" t="s">
+      <c r="L9" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="166"/>
+      <c r="M9" s="157"/>
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1">
       <c r="B10" s="15" t="s">
@@ -2098,11 +2090,11 @@
       <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="17" t="s">
         <v>17</v>
       </c>
@@ -2112,425 +2104,425 @@
       <c r="J10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="159"/>
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="87"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="143">
+      <c r="B11" s="82"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="134">
         <f>K11*C11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="143"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="113"/>
-      <c r="O11" s="45"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="107"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="143">
+      <c r="B12" s="80"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="134">
         <f t="shared" ref="J12:J27" si="0">K12*C12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="148"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-    </row>
-    <row r="13" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="84"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="143">
+      <c r="K12" s="139"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="109"/>
+    </row>
+    <row r="13" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B13" s="79"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="148"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="116"/>
-    </row>
-    <row r="14" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B14" s="85"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="143">
+      <c r="K13" s="139"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="110"/>
+    </row>
+    <row r="14" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B14" s="80"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="148"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="116"/>
-    </row>
-    <row r="15" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B15" s="85"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="143">
+      <c r="K14" s="139"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="110"/>
+    </row>
+    <row r="15" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="80"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="148"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="116"/>
-    </row>
-    <row r="16" spans="2:15" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B16" s="130"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="134"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="143">
+      <c r="K15" s="139"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="110"/>
+    </row>
+    <row r="16" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B16" s="122"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="125"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="148"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="116"/>
-    </row>
-    <row r="17" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B17" s="84"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="143">
+      <c r="K16" s="139"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="110"/>
+    </row>
+    <row r="17" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B17" s="79"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="143"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="116"/>
-    </row>
-    <row r="18" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B18" s="84"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="143">
+      <c r="K17" s="134"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="110"/>
+    </row>
+    <row r="18" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B18" s="79"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="116"/>
-    </row>
-    <row r="19" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="143">
+      <c r="K18" s="139"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="110"/>
+    </row>
+    <row r="19" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B19" s="122"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="149"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="116"/>
-    </row>
-    <row r="20" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B20" s="84"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="143">
+      <c r="K19" s="140"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="110"/>
+    </row>
+    <row r="20" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B20" s="79"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="149"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="116"/>
-    </row>
-    <row r="21" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B21" s="84"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="143">
+      <c r="K20" s="140"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="110"/>
+    </row>
+    <row r="21" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="79"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="149"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="116"/>
-    </row>
-    <row r="22" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="85"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="143">
+      <c r="K21" s="140"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="110"/>
+    </row>
+    <row r="22" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="80"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="149"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="116"/>
-    </row>
-    <row r="23" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B23" s="85"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="143">
+      <c r="K22" s="140"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="110"/>
+    </row>
+    <row r="23" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B23" s="80"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="149"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="116"/>
-    </row>
-    <row r="24" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="143">
+      <c r="K23" s="140"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="110"/>
+    </row>
+    <row r="24" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="80"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="149"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="116"/>
-    </row>
-    <row r="25" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="84"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="143">
+      <c r="K24" s="140"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="110"/>
+    </row>
+    <row r="25" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B25" s="79"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="150"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="116"/>
-    </row>
-    <row r="26" spans="2:16" s="83" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="120"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="143">
+      <c r="K25" s="141"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="110"/>
+    </row>
+    <row r="26" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="114"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="134">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="151"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="128"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="144">
+      <c r="B27" s="20"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="135">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="152"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="P27" s="26"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="113"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="145">
+      <c r="J28" s="136">
         <f>SUM(J11:J27)-J29</f>
         <v>0</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="33"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="146"/>
-      <c r="K29" s="42" t="s">
+      <c r="J29" s="137"/>
+      <c r="K29" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="38"/>
-      <c r="M29" s="43"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="2:16" ht="18" customHeight="1">
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="41" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="37" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="146">
+      <c r="J30" s="137">
         <f>J28*0.07</f>
         <v>0</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="39"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="47"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" spans="2:16" ht="18" customHeight="1">
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="49" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="50"/>
-      <c r="J31" s="147">
+      <c r="I31" s="46"/>
+      <c r="J31" s="138">
         <f>J28+J30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="M31" s="52"/>
-    </row>
-    <row r="32" spans="2:16" s="61" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B32" s="53" t="s">
+      <c r="L31" s="47"/>
+      <c r="M31" s="48"/>
+    </row>
+    <row r="32" spans="2:16" s="57" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B32" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="54" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="58"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="60" t="s">
+      <c r="I32" s="54"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="59"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="2:13" ht="19.5" customHeight="1">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="12" t="s">
@@ -2539,8 +2531,8 @@
       <c r="C34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="160"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="151"/>
     </row>
     <row r="35" spans="2:13">
       <c r="K35" s="1"/>

--- a/public/templates/PR_Form.xlsx
+++ b/public/templates/PR_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub\motassetlistit\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A525E6-69CC-4329-A575-2563DECD8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC55B0-9B61-49E8-8AF1-7D237B8EEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,35 +135,36 @@
     <t xml:space="preserve">Project Name : </t>
   </si>
   <si>
+    <t xml:space="preserve">Action By:                                          Date : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        835/6    ถ. สรงประภา  แขวงดอนเมือง  เขตดอนเมือง กรุงเทพฯ  10210  โทร +66 (0)2 928-6806 แฟกซ์ +66 (0)2 928-6807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        835/6, Song Prapha Road, Don Mueang Sub-district, Don Mueang District, Bangkok Thailand Tel : +66 (0)2 928-6806 Fax : +66 (0)2 928-6807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        www.mot.co.th  </t>
+  </si>
+  <si>
+    <t>PR No:                    Page</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Customer :  </t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Cordia New"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Action By:                                          Date : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        835/6    ถ. สรงประภา  แขวงดอนเมือง  เขตดอนเมือง กรุงเทพฯ  10210  โทร +66 (0)2 928-6806 แฟกซ์ +66 (0)2 928-6807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        835/6, Song Prapha Road, Don Mueang Sub-district, Don Mueang District, Bangkok Thailand Tel : +66 (0)2 928-6806 Fax : +66 (0)2 928-6807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        www.mot.co.th  </t>
-  </si>
-  <si>
-    <t>PR No:                    Page</t>
-  </si>
-  <si>
-    <t>Remarks</t>
   </si>
   <si>
     <r>
@@ -172,6 +173,7 @@
     <r>
       <rPr>
         <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Cordia New"/>
         <family val="2"/>
       </rPr>
@@ -194,7 +196,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00;\-#,##0.00;;@"/>
     <numFmt numFmtId="171" formatCode="#,##0;\-#,##0;;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -271,47 +273,56 @@
       <charset val="222"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <name val="Cordia New"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="CordiaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF002060"/>
+      <name val="CordiaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="12"/>
+      <name val="CordiaUPC"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
       <name val="Cordia New"/>
       <family val="2"/>
+      <charset val="222"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+      <charset val="222"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Angsana New"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
       <charset val="222"/>
     </font>
     <font>
@@ -320,61 +331,54 @@
       <color theme="1"/>
       <name val="Angsana New"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
       <name val="Angsana New"/>
       <family val="1"/>
+      <charset val="222"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <name val="CordiaUPC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF002060"/>
-      <name val="CordiaUPC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="12"/>
-      <name val="CordiaUPC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Cordia New"/>
       <family val="2"/>
       <charset val="222"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Cordia New"/>
       <family val="2"/>
       <charset val="222"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Westend"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Angsana New"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <name val="Westend"/>
       <charset val="222"/>
     </font>
   </fonts>
@@ -961,304 +965,355 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="43" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="21" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="28" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="28" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="19" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="28" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="26" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1266,187 +1321,140 @@
     <xf numFmtId="49" fontId="26" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="24" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="4" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="4" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="20" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="8" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="4" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="26" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="30" fillId="4" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="43" fontId="26" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1911,7 +1919,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24"/>
@@ -1935,56 +1943,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
-      <c r="E2" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
+      <c r="E2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="D3" s="5"/>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="E4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-    </row>
-    <row r="4" spans="2:15" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="E4" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="2:15" s="6" customFormat="1" ht="5.25" customHeight="1">
       <c r="F5" s="7"/>
@@ -1993,546 +2001,549 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:15" ht="25.5" customHeight="1">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="155"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="2:15" ht="21" customHeight="1">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="23" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="101"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="2:15" ht="21" customHeight="1">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="100" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="70"/>
+    </row>
+    <row r="9" spans="2:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B9" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="99"/>
-    </row>
-    <row r="9" spans="2:15" s="12" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="157"/>
-      <c r="H9" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="156" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="156" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="157"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="2:15" ht="18" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="159"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="84"/>
     </row>
     <row r="11" spans="2:15" ht="18" customHeight="1">
-      <c r="B11" s="82"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="134">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91">
         <f>K11*C11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="134"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="107"/>
-      <c r="O11" s="41"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="93"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="B12" s="80"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="134">
+      <c r="B12" s="94"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91">
         <f t="shared" ref="J12:J27" si="0">K12*C12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="139"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="109"/>
-    </row>
-    <row r="13" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B13" s="79"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="134">
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
+    </row>
+    <row r="13" spans="2:15" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B13" s="100"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="139"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="110"/>
-    </row>
-    <row r="14" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B14" s="80"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="134">
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="103"/>
+    </row>
+    <row r="14" spans="2:15" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B14" s="94"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="110"/>
-    </row>
-    <row r="15" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B15" s="80"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="134">
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="103"/>
+    </row>
+    <row r="15" spans="2:15" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B15" s="94"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="139"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="110"/>
-    </row>
-    <row r="16" spans="2:15" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B16" s="122"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="125"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="134">
+      <c r="K15" s="97"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="103"/>
+    </row>
+    <row r="16" spans="2:15" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="139"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="110"/>
-    </row>
-    <row r="17" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B17" s="79"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="134">
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="103"/>
+    </row>
+    <row r="17" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B17" s="100"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="134"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="110"/>
-    </row>
-    <row r="18" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B18" s="79"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="134">
+      <c r="K17" s="91"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="103"/>
+    </row>
+    <row r="18" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B18" s="100"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="139"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="110"/>
-    </row>
-    <row r="19" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B19" s="122"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="134">
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="140"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="110"/>
-    </row>
-    <row r="20" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B20" s="79"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="134">
+      <c r="K19" s="109"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B20" s="100"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="140"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="110"/>
-    </row>
-    <row r="21" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B21" s="79"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="134">
+      <c r="K20" s="109"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="103"/>
+    </row>
+    <row r="21" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B21" s="100"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K21" s="140"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="110"/>
-    </row>
-    <row r="22" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B22" s="80"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="134">
+      <c r="K21" s="109"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="103"/>
+    </row>
+    <row r="22" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B22" s="94"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K22" s="140"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="110"/>
-    </row>
-    <row r="23" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B23" s="80"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="134">
+      <c r="K22" s="109"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="103"/>
+    </row>
+    <row r="23" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B23" s="94"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="140"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="110"/>
-    </row>
-    <row r="24" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B24" s="80"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="134">
+      <c r="K23" s="109"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="94"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="140"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="110"/>
-    </row>
-    <row r="25" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="79"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="134">
+      <c r="K24" s="109"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="103"/>
+    </row>
+    <row r="25" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B25" s="100"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="141"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="110"/>
-    </row>
-    <row r="26" spans="2:16" s="78" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="114"/>
-      <c r="C26" s="147"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="103"/>
+    </row>
+    <row r="26" spans="2:16" s="17" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="113"/>
+      <c r="C26" s="114"/>
       <c r="D26" s="115"/>
       <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="134">
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="142"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="120"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="121"/>
     </row>
     <row r="27" spans="2:16" ht="18" customHeight="1">
-      <c r="B27" s="20"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="135">
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="143"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="113"/>
-      <c r="P27" s="22"/>
-    </row>
-    <row r="28" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="23" t="s">
+      <c r="K27" s="128"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="130"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="2:16" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="27" t="s">
+      <c r="C28" s="61"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="134" t="s">
         <v>5</v>
       </c>
+      <c r="I28" s="135"/>
       <c r="J28" s="136">
         <f>SUM(J11:J27)-J29</f>
         <v>0</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="P28" s="31"/>
-    </row>
-    <row r="29" spans="2:16" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37" t="s">
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="12"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="2:16" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="B29" s="140"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="137"/>
-      <c r="K29" s="38" t="s">
+      <c r="I29" s="135"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="39"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:16" ht="18" customHeight="1">
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="37" t="s">
+      <c r="B30" s="150"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="137">
+      <c r="I30" s="155"/>
+      <c r="J30" s="147">
         <f>J28*0.07</f>
         <v>0</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="43"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="2:16" ht="18" customHeight="1">
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45" t="s">
+      <c r="B31" s="150"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="138">
+      <c r="I31" s="69"/>
+      <c r="J31" s="160">
         <f>J28+J30</f>
         <v>0</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="48"/>
-    </row>
-    <row r="32" spans="2:16" s="57" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B32" s="49" t="s">
+      <c r="L31" s="161"/>
+      <c r="M31" s="162"/>
+    </row>
+    <row r="32" spans="2:16" s="15" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B32" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="50" t="s">
+      <c r="C32" s="164"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="56" t="s">
+      <c r="I32" s="168"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="169"/>
+      <c r="L32" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="55"/>
+      <c r="M32" s="169"/>
     </row>
     <row r="33" spans="2:13" ht="19.5" customHeight="1">
-      <c r="B33" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="47" t="s">
+      <c r="B33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="161"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="H33" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="160"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="176"/>
+      <c r="M33" s="177"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="28"/>
     </row>
     <row r="35" spans="2:13">
       <c r="K35" s="1"/>
